--- a/Revisiones_repositorios/repositorios progaplicada.xlsx
+++ b/Revisiones_repositorios/repositorios progaplicada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Prog_Aplicada\Revisiones_repositorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D8A602-9177-4B21-9AE8-2F50037A414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FE9DA5-29BD-4743-958B-7B71D8705FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D09DDEB-7ECD-45FA-AF97-5B5F5AEA4E72}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t> KEVIN NICOLAS TORRES ARIAS</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Miguel Angel Salguero</t>
+  </si>
+  <si>
+    <t>hugo daza</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A86A98-5EE8-49A6-8296-204B083C9D1F}">
-  <dimension ref="B3:D30"/>
+  <dimension ref="B3:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +646,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -652,9 +655,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -665,7 +668,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -676,23 +679,26 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -700,7 +706,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -708,7 +714,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -716,42 +722,39 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C24">
         <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -762,7 +765,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -772,24 +775,27 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
-        <v>29</v>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C27">
         <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -797,9 +803,17 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>5</v>
       </c>
     </row>

--- a/Revisiones_repositorios/repositorios progaplicada.xlsx
+++ b/Revisiones_repositorios/repositorios progaplicada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Prog_Aplicada\Revisiones_repositorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FE9DA5-29BD-4743-958B-7B71D8705FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75704A59-1728-44B6-BD34-60BCE7111DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D09DDEB-7ECD-45FA-AF97-5B5F5AEA4E72}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t> KEVIN NICOLAS TORRES ARIAS</t>
   </si>
@@ -134,7 +134,28 @@
     <t>Miguel Angel Salguero</t>
   </si>
   <si>
-    <t>hugo daza</t>
+    <t>daniel gonzalez</t>
+  </si>
+  <si>
+    <t>daiyani ortiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michel tovar </t>
+  </si>
+  <si>
+    <t>david santiago madrid</t>
+  </si>
+  <si>
+    <t>julian david montoya</t>
+  </si>
+  <si>
+    <t>luis david quinbayo</t>
+  </si>
+  <si>
+    <t>maría ramirez</t>
+  </si>
+  <si>
+    <t>hugo ruiz daza</t>
   </si>
 </sst>
 </file>
@@ -203,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A86A98-5EE8-49A6-8296-204B083C9D1F}">
-  <dimension ref="B3:D31"/>
+  <dimension ref="B3:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +576,7 @@
     <col min="2" max="2" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,56 +586,77 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -621,8 +666,11 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -632,8 +680,11 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -643,10 +694,13 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -654,8 +708,11 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
@@ -665,8 +722,11 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
@@ -676,8 +736,11 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
@@ -687,40 +750,55 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
@@ -728,31 +806,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
@@ -763,7 +850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
@@ -773,8 +860,11 @@
       <c r="D26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
@@ -784,37 +874,117 @@
       <c r="D27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C31">
         <v>5</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -824,6 +994,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F2F77621AA6F8742AD1384E6F5587481" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="dbc158599acfa13b1792c325d2011569">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="30d55624-307a-4bbc-8f4c-a94e1f750c0b" xmlns:ns4="169853db-5556-4b90-9d9d-13af5ec0fa13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e74b993760e71b8289fc4658826322e" ns3:_="" ns4:_="">
     <xsd:import namespace="30d55624-307a-4bbc-8f4c-a94e1f750c0b"/>
@@ -1034,15 +1213,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1050,6 +1220,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145CCB46-092B-4CC9-9B3B-2C4CBE1DB450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1064,14 +1242,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Revisiones_repositorios/repositorios progaplicada.xlsx
+++ b/Revisiones_repositorios/repositorios progaplicada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Prog_Aplicada\Revisiones_repositorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75704A59-1728-44B6-BD34-60BCE7111DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89E1A2-0EC1-46C9-9A17-1404E45B9576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D09DDEB-7ECD-45FA-AF97-5B5F5AEA4E72}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t> KEVIN NICOLAS TORRES ARIAS</t>
   </si>
@@ -156,6 +156,33 @@
   </si>
   <si>
     <t>hugo ruiz daza</t>
+  </si>
+  <si>
+    <t>Falta link repositorio</t>
+  </si>
+  <si>
+    <t>No registra entrega</t>
+  </si>
+  <si>
+    <t>Ejercicios desordenados o incompletos</t>
+  </si>
+  <si>
+    <t>Los colab se guardan incorrectamente</t>
+  </si>
+  <si>
+    <t>Ejercicios incompletos</t>
+  </si>
+  <si>
+    <t>Incompleto</t>
+  </si>
+  <si>
+    <t>Ejercicios Incompletos</t>
+  </si>
+  <si>
+    <t>No se registra entrega</t>
+  </si>
+  <si>
+    <t>Ejercicios diccionarios incompletos</t>
   </si>
 </sst>
 </file>
@@ -565,18 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A86A98-5EE8-49A6-8296-204B083C9D1F}">
-  <dimension ref="B3:E38"/>
+  <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,8 +618,14 @@
       <c r="E3">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -600,8 +635,11 @@
       <c r="E4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -611,8 +649,11 @@
       <c r="E5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -622,8 +663,11 @@
       <c r="E6">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -633,8 +677,11 @@
       <c r="E7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -644,8 +691,14 @@
       <c r="E8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -655,8 +708,14 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -669,8 +728,11 @@
       <c r="E10">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -683,8 +745,14 @@
       <c r="E11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -697,8 +765,14 @@
       <c r="E12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
@@ -711,8 +785,14 @@
       <c r="E13">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
@@ -725,8 +805,14 @@
       <c r="E14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
@@ -739,8 +825,14 @@
       <c r="E15">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
@@ -753,8 +845,14 @@
       <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -764,95 +862,143 @@
       <c r="E17">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="E18">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="E19">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="E19">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="E20">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="E20">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="E22">
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="E23">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="E23">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="E24">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="E24">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="E25">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -860,13 +1006,16 @@
       <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -875,115 +1024,157 @@
         <v>28</v>
       </c>
       <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="E28">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="E29">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="E29">
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="E30">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="E30">
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="E31">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="E31">
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="E32">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="E32">
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="E33">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="E33">
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="E34">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="9" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>23</v>
       </c>
     </row>
@@ -994,12 +1185,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,15 +1402,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7600190-9FA4-4A01-B599-6663F7128E9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="30d55624-307a-4bbc-8f4c-a94e1f750c0b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="169853db-5556-4b90-9d9d-13af5ec0fa13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1247,18 +1447,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7600190-9FA4-4A01-B599-6663F7128E9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="30d55624-307a-4bbc-8f4c-a94e1f750c0b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="169853db-5556-4b90-9d9d-13af5ec0fa13"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Revisiones_repositorios/repositorios progaplicada.xlsx
+++ b/Revisiones_repositorios/repositorios progaplicada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Prog_Aplicada\Revisiones_repositorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89E1A2-0EC1-46C9-9A17-1404E45B9576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF13353-80F5-402C-BF99-03A0FF5EDB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D09DDEB-7ECD-45FA-AF97-5B5F5AEA4E72}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t> KEVIN NICOLAS TORRES ARIAS</t>
   </si>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A86A98-5EE8-49A6-8296-204B083C9D1F}">
   <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,11 +1122,8 @@
       <c r="E33">
         <v>11</v>
       </c>
-      <c r="F33" t="s">
-        <v>48</v>
-      </c>
       <c r="G33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
@@ -1139,11 +1136,8 @@
       <c r="E34">
         <v>18</v>
       </c>
-      <c r="F34" t="s">
-        <v>48</v>
-      </c>
       <c r="G34">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -1185,9 +1179,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,27 +1399,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7600190-9FA4-4A01-B599-6663F7128E9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="30d55624-307a-4bbc-8f4c-a94e1f750c0b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="169853db-5556-4b90-9d9d-13af5ec0fa13"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1447,9 +1432,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7600190-9FA4-4A01-B599-6663F7128E9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="30d55624-307a-4bbc-8f4c-a94e1f750c0b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="169853db-5556-4b90-9d9d-13af5ec0fa13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Revisiones_repositorios/repositorios progaplicada.xlsx
+++ b/Revisiones_repositorios/repositorios progaplicada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Prog_Aplicada\Revisiones_repositorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF13353-80F5-402C-BF99-03A0FF5EDB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED4213-370F-45C1-9F8A-84C1CE0118EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D09DDEB-7ECD-45FA-AF97-5B5F5AEA4E72}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t> KEVIN NICOLAS TORRES ARIAS</t>
   </si>
@@ -158,18 +158,9 @@
     <t>hugo ruiz daza</t>
   </si>
   <si>
-    <t>Falta link repositorio</t>
-  </si>
-  <si>
     <t>No registra entrega</t>
   </si>
   <si>
-    <t>Ejercicios desordenados o incompletos</t>
-  </si>
-  <si>
-    <t>Los colab se guardan incorrectamente</t>
-  </si>
-  <si>
     <t>Ejercicios incompletos</t>
   </si>
   <si>
@@ -183,6 +174,21 @@
   </si>
   <si>
     <t>Ejercicios diccionarios incompletos</t>
+  </si>
+  <si>
+    <t>Falta link repositorio, lo scripts no se pudieron revisar</t>
+  </si>
+  <si>
+    <t>Ejercicios desordenados o incompletos diccionarios</t>
+  </si>
+  <si>
+    <t>Los colab se guardan incorrectamente, falta ejercicio numpy</t>
+  </si>
+  <si>
+    <t>Falta link repositorio, guardar colabs en un repositorio</t>
+  </si>
+  <si>
+    <t>Ejercicios incompletos, falta ejercicio numpy, ejercicio cambio</t>
   </si>
 </sst>
 </file>
@@ -594,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A86A98-5EE8-49A6-8296-204B083C9D1F}">
   <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>2.5</v>
@@ -633,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -647,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -661,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -689,10 +695,10 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>3.7</v>
@@ -706,10 +712,10 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>2.7</v>
@@ -726,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -743,13 +749,13 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -763,13 +769,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G12">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -783,13 +789,13 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -806,10 +812,10 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -823,13 +829,10 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -845,11 +848,8 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -860,13 +860,13 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -877,10 +877,10 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>4.7</v>
@@ -894,10 +894,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>4.7</v>
@@ -911,13 +911,10 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -928,13 +925,10 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -944,6 +938,9 @@
       <c r="C22">
         <v>5</v>
       </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
       <c r="G22">
         <v>5</v>
       </c>
@@ -956,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -970,10 +967,10 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>4.5</v>
@@ -987,10 +984,10 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G25">
         <v>4.5</v>
@@ -1007,10 +1004,10 @@
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -1027,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -1044,13 +1041,13 @@
         <v>28</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
@@ -1061,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -1075,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -1089,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -1103,13 +1100,13 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G32">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -1120,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -1134,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -1145,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="E36">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
@@ -1153,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="E37">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -1161,7 +1158,7 @@
         <v>38</v>
       </c>
       <c r="E38">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -1169,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1179,12 +1176,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1399,15 +1393,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7600190-9FA4-4A01-B599-6663F7128E9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="30d55624-307a-4bbc-8f4c-a94e1f750c0b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="169853db-5556-4b90-9d9d-13af5ec0fa13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1432,18 +1438,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7600190-9FA4-4A01-B599-6663F7128E9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="30d55624-307a-4bbc-8f4c-a94e1f750c0b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="169853db-5556-4b90-9d9d-13af5ec0fa13"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Revisiones_repositorios/repositorios progaplicada.xlsx
+++ b/Revisiones_repositorios/repositorios progaplicada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\Prog_Aplicada\Revisiones_repositorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED4213-370F-45C1-9F8A-84C1CE0118EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F806D-9D64-4E26-971B-801A4F89452F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D09DDEB-7ECD-45FA-AF97-5B5F5AEA4E72}"/>
   </bookViews>
@@ -600,15 +600,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A86A98-5EE8-49A6-8296-204B083C9D1F}">
   <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.88671875" customWidth="1"/>
+    <col min="6" max="6" width="63.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -701,7 +701,7 @@
         <v>48</v>
       </c>
       <c r="G8">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
         <v>45</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>45</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -1047,7 +1047,7 @@
         <v>45</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
@@ -1176,9 +1176,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1393,27 +1396,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7600190-9FA4-4A01-B599-6663F7128E9F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="30d55624-307a-4bbc-8f4c-a94e1f750c0b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="169853db-5556-4b90-9d9d-13af5ec0fa13"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1438,9 +1429,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12959B27-8023-431D-A8B3-40F9C9A06B04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7600190-9FA4-4A01-B599-6663F7128E9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="30d55624-307a-4bbc-8f4c-a94e1f750c0b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="169853db-5556-4b90-9d9d-13af5ec0fa13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>